--- a/mosip_master/xlsx/loc_hierarchy_list.xlsx
+++ b/mosip_master/xlsx/loc_hierarchy_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sao Tome and Principe\IJ-CODE\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9D0AB7-AA7B-46E6-806A-97FF67B8551D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82834BD4-F8ED-4380-88F9-FBE84780C471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$6</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
   <si>
     <t>lang_code</t>
   </si>
@@ -40,25 +40,7 @@
     <t>eng</t>
   </si>
   <si>
-    <t>Country</t>
-  </si>
-  <si>
     <t>TRUE</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>Province</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Zone</t>
-  </si>
-  <si>
-    <t>Postal Code</t>
   </si>
   <si>
     <t>País</t>
@@ -95,7 +77,7 @@
       <b/>
       <sz val="11"/>
       <name val="Cambria"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -133,7 +115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -142,8 +124,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -494,10 +474,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -511,7 +491,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -525,7 +505,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -539,7 +519,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -553,95 +533,81 @@
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="4">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="4">
-        <v>2</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="4">
-        <v>3</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="4">
-        <v>4</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>6</v>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D7" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D6" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/mosip_master/xlsx/loc_hierarchy_list.xlsx
+++ b/mosip_master/xlsx/loc_hierarchy_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sao Tome and Principe\IJ-CODE\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82834BD4-F8ED-4380-88F9-FBE84780C471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B97971-AA6A-4FE0-89A3-9B7E549660DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -441,7 +441,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/mosip_master/xlsx/loc_hierarchy_list.xlsx
+++ b/mosip_master/xlsx/loc_hierarchy_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sao Tome and Principe\IJ-CODE\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B97971-AA6A-4FE0-89A3-9B7E549660DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C6ED09-D337-4900-A005-66999855EA0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>lang_code</t>
   </si>
@@ -37,9 +37,6 @@
     <t>is_active</t>
   </si>
   <si>
-    <t>eng</t>
-  </si>
-  <si>
     <t>TRUE</t>
   </si>
   <si>
@@ -49,16 +46,16 @@
     <t>Ilhas</t>
   </si>
   <si>
-    <t>Distritos</t>
-  </si>
-  <si>
-    <t>Cidades</t>
-  </si>
-  <si>
-    <t>Vilas</t>
-  </si>
-  <si>
     <t>por</t>
+  </si>
+  <si>
+    <t>Distrito</t>
+  </si>
+  <si>
+    <t>Cidade</t>
+  </si>
+  <si>
+    <t>Vila</t>
   </si>
 </sst>
 </file>
@@ -438,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -468,35 +465,35 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -505,12 +502,12 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -519,12 +516,12 @@
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -533,81 +530,11 @@
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
         <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D6" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
